--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2160.30195</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6573.0181</v>
-      </c>
-      <c r="D2" t="n">
-        <v>541.23705</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.28638</v>
-      </c>
-      <c r="F2" t="n">
-        <v>169.87081</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6137.48284</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1465.279</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1871.2581</v>
-      </c>
-      <c r="J2" t="n">
-        <v>457.51363</v>
-      </c>
-      <c r="K2" t="n">
-        <v>818.68807</v>
-      </c>
-      <c r="L2" t="n">
-        <v>87309.83</v>
-      </c>
-      <c r="M2" t="n">
-        <v>95.96169</v>
-      </c>
-      <c r="N2" t="n">
-        <v>161.86754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3262.51843</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2160.35881</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>319.78561</v>
-      </c>
-      <c r="R2" t="n">
-        <v>569.83671</v>
-      </c>
-      <c r="S2" t="n">
-        <v>287.60968</v>
-      </c>
-      <c r="T2" t="n">
-        <v>321.20285</v>
-      </c>
-      <c r="U2" t="n">
-        <v>722.91934</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1746.52097</v>
-      </c>
-      <c r="W2" t="n">
-        <v>481.66653</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3254.9018</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14534.79826</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5054.93533</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3174.50231</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>300.60638</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3142.9828</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4018.08694</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3408.0943</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1009.09212</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1389.36234</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>898.3863700000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3121.55586</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>448.90377</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>854.09162</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1470.61204</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1967.97805</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8004.904</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>223.38684</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2107.33984</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7416.46247</v>
-      </c>
-      <c r="D3" t="n">
-        <v>659.8086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.28295</v>
-      </c>
-      <c r="F3" t="n">
-        <v>223.15716</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6596.66645</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1302.49234</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2299.37576</v>
-      </c>
-      <c r="J3" t="n">
-        <v>537.5593</v>
-      </c>
-      <c r="K3" t="n">
-        <v>969.88062</v>
-      </c>
-      <c r="L3" t="n">
-        <v>97372.22</v>
-      </c>
-      <c r="M3" t="n">
-        <v>116.99882</v>
-      </c>
-      <c r="N3" t="n">
-        <v>170.15635</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3357.88392</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2425.71572</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>331.2261</v>
-      </c>
-      <c r="R3" t="n">
-        <v>687.56249</v>
-      </c>
-      <c r="S3" t="n">
-        <v>326.31641</v>
-      </c>
-      <c r="T3" t="n">
-        <v>320.28435</v>
-      </c>
-      <c r="U3" t="n">
-        <v>793.58888</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2259.92883</v>
-      </c>
-      <c r="W3" t="n">
-        <v>489.47614</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3587.77818</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>16391.01598</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6613.48014</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3682.5609</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>351.14523</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3317.95033</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4060.69757</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3534.34563</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1104.58669</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1880.16322</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1091.6054</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3465.4749</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>487.71073</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>992.5497800000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1602.55957</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2136.71884</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8781.45616</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>219.08946</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2227.77103</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8172.37934</v>
-      </c>
-      <c r="D4" t="n">
-        <v>684.60663</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.28021</v>
-      </c>
-      <c r="F4" t="n">
-        <v>232.78179</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6995.72492</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1250.37186</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2551.02627</v>
-      </c>
-      <c r="J4" t="n">
-        <v>569.79741</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1102.42045</v>
-      </c>
-      <c r="L4" t="n">
-        <v>103516.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>116.46828</v>
-      </c>
-      <c r="N4" t="n">
-        <v>191.34722</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3529.38868</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2564.01495</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>329.17283</v>
-      </c>
-      <c r="R4" t="n">
-        <v>717.61598</v>
-      </c>
-      <c r="S4" t="n">
-        <v>349.12656</v>
-      </c>
-      <c r="T4" t="n">
-        <v>324.94787</v>
-      </c>
-      <c r="U4" t="n">
-        <v>823.1149</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2406.73964</v>
-      </c>
-      <c r="W4" t="n">
-        <v>544.90995</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4153.43596</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17957.94791</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7405.84035</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3850.36621</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>370.46001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3167.14935</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4302.09337</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3644.68054</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1273.83021</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1957.15874</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1130.01781</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3581.63598</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>500.90082</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1168.25318</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1750.53225</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2222.29826</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8439.62671</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>247.92483</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
